--- a/reports/report1.xlsx
+++ b/reports/report1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/cross-check-reports/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84BD7767-0073-1B43-BE4E-C54D40FB7AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B1233-6112-EE41-AAF0-2B8AFC90576F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{8EEB0926-F59A-0546-B12B-F2BBDD70338A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>One</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
   </si>
 </sst>
 </file>
@@ -396,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50F6A60-7422-014F-B1BE-C7AF1CE74B86}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,6 +431,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/reports/report1.xlsx
+++ b/reports/report1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/cross-check-reports/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B1233-6112-EE41-AAF0-2B8AFC90576F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9992D4-AB47-7149-9FB4-C1FAB0A805F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{8EEB0926-F59A-0546-B12B-F2BBDD70338A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>One</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Four</t>
+  </si>
+  <si>
+    <t>Five</t>
   </si>
 </sst>
 </file>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50F6A60-7422-014F-B1BE-C7AF1CE74B86}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,6 +442,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
